--- a/DC_test_v4_original.xlsx
+++ b/DC_test_v4_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24477\Desktop\Toolbox\Simplus-Grid-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FF017-0EC1-4C7E-AB9A-E536F3301E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B2B8C-B634-42AE-BD7A-EE012F1BB328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="750" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,7 @@
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
     <sheet name="Advance" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -194,10 +184,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +201,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -224,6 +209,7 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,13 +241,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,7 +527,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L8"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +771,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -795,7 +782,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,10 +790,10 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="22.25" customWidth="1"/>
     <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
@@ -841,11 +828,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
@@ -859,8 +842,6 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
@@ -889,7 +870,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -971,7 +952,7 @@
       <c r="E11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1254,7 +1235,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1319,7 +1300,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1330,7 +1311,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1382,7 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,7 +1390,7 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1429,7 +1410,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/DC_test_v4_original.xlsx
+++ b/DC_test_v4_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24477\Desktop\Toolbox\Simplus-Grid-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99B2B8C-B634-42AE-BD7A-EE012F1BB328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A562239C-0FA6-4CEB-8959-BBCC60034EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="750" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
